--- a/testdata/ExcelTestData.xlsx
+++ b/testdata/ExcelTestData.xlsx
@@ -70,11 +70,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,9 +391,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -397,11 +403,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
